--- a/config_12.15/game_enter_btn_config.xlsx
+++ b/config_12.15/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="18" activeTab="25"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="339">
   <si>
     <t>id|行号</t>
   </si>
@@ -1467,10 +1467,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3#2#8#61#115</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>condi_key|推荐的条件key可以为空</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1484,10 +1480,6 @@
   </si>
   <si>
     <t>111#112#53#79#100;36;113;89;93;11#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>36;113;89;105#97;100;11;93;94#58;107#30#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1495,7 +1487,27 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>cjj_official_enter_limit</t>
+    <t>"xycj",</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>xycj_enter_limit</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运抽奖</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jjsl_enter_limit</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>36;113;89;105#97;100;11;93;94#58;107#30#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;116#2#8#61#115#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2558,7 +2570,7 @@
         <v>110</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -3077,13 +3089,13 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
+      <selection pane="bottomRight" activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3108,7 +3120,7 @@
         <v>22</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>51</v>
@@ -4941,7 +4953,7 @@
         <v>1</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E106">
         <v>105</v>
@@ -5108,19 +5120,39 @@
         <v>115</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>327</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="E117">
+        <v>116</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -5356,7 +5388,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5460,8 +5492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5499,7 +5531,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -5518,7 +5550,7 @@
         <v>148</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!E3</f>

--- a/config_12.15/game_enter_btn_config.xlsx
+++ b/config_12.15/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="22" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="340">
   <si>
     <t>id|行号</t>
   </si>
@@ -1508,6 +1508,10 @@
   </si>
   <si>
     <t>3;116#2#8#61#115#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cps_xycj</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3091,11 +3095,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B101" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D106" sqref="D106"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3175,7 +3179,9 @@
       <c r="C4" s="6">
         <v>1</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>339</v>
+      </c>
       <c r="E4" s="6">
         <v>3</v>
       </c>
@@ -5492,7 +5498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>

--- a/config_12.15/game_enter_btn_config.xlsx
+++ b/config_12.15/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.15\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="18" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="336">
   <si>
     <t>id|行号</t>
   </si>
@@ -1493,6 +1493,10 @@
   <si>
     <t>11;16;31;93#26#</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>cjj_official_enter_limit</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3075,11 +3079,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B73" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A94" sqref="A94:XFD94"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4935,6 +4939,9 @@
       </c>
       <c r="C106">
         <v>1</v>
+      </c>
+      <c r="D106" s="6" t="s">
+        <v>335</v>
       </c>
       <c r="E106">
         <v>105</v>
@@ -5316,7 +5323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -5376,7 +5383,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5453,8 +5460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C122" sqref="C122"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
